--- a/biology/Médecine/Wilhelm_Fabricius_Hildanus/Wilhelm_Fabricius_Hildanus.xlsx
+++ b/biology/Médecine/Wilhelm_Fabricius_Hildanus/Wilhelm_Fabricius_Hildanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilhelm Fabricius Hildanus, Wilhelm Fabry (ou encore William Fabry, Guilelmus Fabricius Hildanus, ou Fabricius von Hilden, Fabrice de Hilden, Guillaume Fabri de Hilden) (25 juin 1560 à Hilden près de Cologne - 15 février 1634 à Berne), est un chirurgien allemand.
 On l'appelle souvent « père de la chirurgie allemande » ou le « premier chirurgien scientifique ».
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Traitté de la gangrene et du Sphacele... - Genève : Jacob Stroer, 1597. sur Google Livres
 Guilhelmi Fabricii Hildani De Dysenteria : Liber unus: In quo hujus Morbi Causae, Signa, Prognostica, &amp; Praeservatio continentur: Item, quomodo Symptomata, quae huic Morbo supervenire solent, sint removenda. - Oppenheimii : de Bry / Galler, 1616. édition numérisée.
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet article comprend des extraits du Dictionnaire Bouillet. Il est possible de supprimer cette indication, si le texte reflète le savoir actuel sur ce thème, si les sources sont citées, s'il satisfait aux exigences linguistiques actuelles et s'il ne contient pas de propos qui vont à l'encontre des règles de neutralité de Wikipédia.</t>
         </is>
